--- a/doc/d2_外部設計書_櫻井家.xlsx
+++ b/doc/d2_外部設計書_櫻井家.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BDD186-A94F-4F27-AF4C-1BC38F1DEF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEFE048-AC53-4299-86F6-1BAB37F4D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="-16200" windowWidth="17925" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -221,6 +222,265 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「1　ロゴ」クリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップページに遷移する。</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2 検索バー」ラジオボタンで「記事」「コミュニティ」を選択し、虫眼鏡ボタンクリック</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ムシメガネ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空欄である場合は</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空欄でない場合、ラジオボタンで選択したジャンルの検索結果一覧画面に遷移する。検索結果一覧画面では、入力されたキーワードやタグでの検索を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「3 おすすめ記事、おすすめコミュニティ」切り替え</t>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「記事」タブを選択でおすすめ記事ページが表示、「コミュニティ」タブを選択でおすすめコミュニティ表示</t>
+    <rPh sb="1" eb="3">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「4 おすすめ記事、コミュニティのタイトル」クリック</t>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインページ、新規登録ページに遷移する。</t>
+    <rPh sb="8" eb="12">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「5 ログイン、新規登録」クリック</t>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「6 投稿」 クリック</t>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>記事投稿ページに遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択した記事、チャットのページに遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「7 自分の記事タイトル下部の編集、閲覧」クリック</t>
+    <rPh sb="3" eb="5">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択した「自分が投稿した記事」の編集ページ、閲覧ページに遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「8 コミュニティ作成」クリック</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コミュニティ作成ページに遷移する。</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「9 フッターコンテンツ」クリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッターのコンテンツの「投稿」「コミュニティ」「ログイン」「ログアウト」「新規作成」「トップページ」の対応したリンクのページに遷移する。</t>
+    <rPh sb="12" eb="14">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -647,24 +907,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,9 +937,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,6 +954,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1733,150 +1993,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3611,7 +3871,9 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -3652,7 +3914,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -3732,6 +3996,9 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -3772,7 +4039,9 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3813,7 +4082,9 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -3892,6 +4163,9 @@
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
+      <c r="D54" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -3932,7 +4206,9 @@
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -4012,6 +4288,9 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -4052,7 +4331,9 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -4132,6 +4413,9 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
+      <c r="D60" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -4172,7 +4456,9 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4252,6 +4538,9 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -4292,7 +4581,9 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -4372,6 +4663,9 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
+      <c r="D66" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -4412,7 +4706,9 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -4492,6 +4788,9 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
+      <c r="D69" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -4532,7 +4831,9 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="E70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -4613,7 +4914,9 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -4656,7 +4959,9 @@
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -6253,4 +6558,17 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F15200-6003-4003-B2EE-77FA84FF06DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/d2_外部設計書_櫻井家.xlsx
+++ b/doc/d2_外部設計書_櫻井家.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEFE048-AC53-4299-86F6-1BAB37F4D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C490664-31FA-4E7C-A78D-C1B62541DE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
+    <sheet name="外部設計書 " sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'外部設計書 '!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -253,16 +253,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>空欄である場合は</t>
-    <rPh sb="0" eb="2">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>空欄でない場合、ラジオボタンで選択したジャンルの検索結果一覧画面に遷移する。検索結果一覧画面では、入力されたキーワードやタグでの検索を行う。</t>
     <rPh sb="0" eb="2">
       <t>クウラン</t>
@@ -481,6 +471,19 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空欄である場合は虫眼鏡ボタンをクリックできない</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ムシメガネ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -907,6 +910,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,6 +958,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,27 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,23 +1001,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>237889</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>33421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>7082</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196662</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF924BC-4B2B-EC41-130B-FC743A174535}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF4471A-2683-9774-74F4-EE1D55E544CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1025,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1030,13 +1033,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="6989" t="17810" r="18831" b="15860"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409574" y="1085850"/>
-          <a:ext cx="8855808" cy="5940425"/>
+          <a:off x="1006573" y="980351"/>
+          <a:ext cx="4058422" cy="6122606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,23 +1051,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>101601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17464</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>178442</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351850B3-EE2B-96C7-2AA7-5DF105A6E15C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A607AD8D-E000-4DC9-9A01-2D73CFADBF8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,8 +1075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="873126" y="1876424"/>
-          <a:ext cx="419100" cy="390525"/>
+          <a:off x="1811060" y="1091522"/>
+          <a:ext cx="417207" cy="388297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,23 +1119,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124492</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D61B12-3AA4-444D-8FBC-70BAADF041F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058F802B-9444-4FC9-B637-C2944F58C416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,8 +1143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="2035175"/>
-          <a:ext cx="419100" cy="390525"/>
+          <a:off x="3455457" y="1075915"/>
+          <a:ext cx="421614" cy="388297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,23 +1187,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51132</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>208649</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB9F960-E458-4110-9FE9-48790C86E1D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960E21F8-8067-47BC-8594-3F0C6026F49C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,8 +1211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028699" y="2263775"/>
-          <a:ext cx="419100" cy="393700"/>
+          <a:off x="1076044" y="1414049"/>
+          <a:ext cx="413745" cy="391472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1251,23 +1255,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76868</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237847</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4160C340-2817-4930-A32C-D0EF4C1FECB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA2C096-B00C-4B17-A7CF-AA84F620747E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,8 +1279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1670049" y="2778125"/>
-          <a:ext cx="419100" cy="393700"/>
+          <a:off x="1101780" y="1932573"/>
+          <a:ext cx="417207" cy="391471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,23 +1323,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144322</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>49072</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A206269-FA79-4587-9D12-B6A04DE49920}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7909429E-C580-4B6B-807E-7BCA7258C8F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,8 +1347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543299" y="2482850"/>
-          <a:ext cx="419100" cy="390525"/>
+          <a:off x="3219059" y="1922490"/>
+          <a:ext cx="417206" cy="388296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1388,22 +1392,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>188326</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:colOff>93076</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45174</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235968E4-4246-420F-B1BC-550539EB2117}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C98BD4-F88B-4C4D-B99D-D6E9F2BBB79A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,8 +1415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448049" y="3114675"/>
-          <a:ext cx="419100" cy="387350"/>
+          <a:off x="3519291" y="4394701"/>
+          <a:ext cx="417206" cy="385122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1456,22 +1460,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>108005</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13702</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB86FAF-448A-49F9-B93D-C41B27BEED57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FA66CC-85CC-4BFD-B949-C9E6059AB253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,8 +1483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3428999" y="3524250"/>
-          <a:ext cx="419100" cy="387350"/>
+          <a:off x="3438970" y="2791215"/>
+          <a:ext cx="418153" cy="385122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,22 +1528,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>85000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>246925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177410</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13D2487-B431-482A-8FA3-ED0EC7886C76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A181E5-2D76-4473-8758-379A98267AAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,8 +1551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400424" y="4962525"/>
-          <a:ext cx="419100" cy="387350"/>
+          <a:off x="3415965" y="4905709"/>
+          <a:ext cx="418153" cy="385122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,23 +1595,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156911</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61661</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E7CB2A-E7D9-4109-BE0C-8E9D683F666E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD19381-CE7D-461D-95F9-309E96C84A06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,8 +1619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771524" y="5591175"/>
-          <a:ext cx="419100" cy="387350"/>
+          <a:off x="925595" y="6316412"/>
+          <a:ext cx="417206" cy="385122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1980,11 +1984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86199C-6403-4BB8-8359-F5AF745FFD18}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="114" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1993,150 +1997,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="41" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="20"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="38" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="24"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4040,7 +4044,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="E51" s="8" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -4083,7 +4087,7 @@
       <c r="B52" s="6"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -4164,7 +4168,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -4207,7 +4211,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="E55" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -4289,7 +4293,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -4332,7 +4336,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="E58" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -4414,7 +4418,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -4457,7 +4461,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -4539,7 +4543,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -4582,7 +4586,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="E64" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -4664,7 +4668,7 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -4707,7 +4711,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -4789,7 +4793,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -4832,7 +4836,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="E70" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -4915,7 +4919,7 @@
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -4960,7 +4964,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -6550,7 +6554,7 @@
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
